--- a/Input Files/List of ETFs.xlsx
+++ b/Input Files/List of ETFs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpsu\Desktop\Regis\7 Fall 2021 8W2\MSDS 696 Data Science Practicum II\Project Files\Test\Input Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpsu\Desktop\Regis\7 Fall 2021 8W2\MSDS 696 Data Science Practicum II\Project Files\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E08F95-8A81-4E38-94D5-33F170BCAA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B15D5CC-A141-44B3-BD5D-28D267CC1C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4F3F41B7-FC5B-4993-88DA-64C6DABD230F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{4F3F41B7-FC5B-4993-88DA-64C6DABD230F}"/>
   </bookViews>
   <sheets>
     <sheet name="List of ETFS" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Tickers_Test" sheetId="3" r:id="rId5"/>
     <sheet name="Med_Missing" sheetId="6" r:id="rId6"/>
     <sheet name="Low_Missing" sheetId="8" r:id="rId7"/>
+    <sheet name="Demo" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="218">
   <si>
     <t>Symbol</t>
   </si>
@@ -3928,7 +3929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A464DACB-E2B4-48D8-805D-885F09442850}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4613,7 +4614,7 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5061,4 +5062,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49998F26-84EA-4C4D-9DE8-738C78602CF1}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input Files/List of ETFs.xlsx
+++ b/Input Files/List of ETFs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpsu\Desktop\Regis\7 Fall 2021 8W2\MSDS 696 Data Science Practicum II\Project Files\Input Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpsu\Desktop\Regis\7 Fall 2021 8W2\MSDS 696 Data Science Practicum II\GitHub Files\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B15D5CC-A141-44B3-BD5D-28D267CC1C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BB5ED2-51A5-4AAD-8A68-8D53EEA30538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{4F3F41B7-FC5B-4993-88DA-64C6DABD230F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="218">
   <si>
     <t>Symbol</t>
   </si>
@@ -3929,7 +3929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A464DACB-E2B4-48D8-805D-885F09442850}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4613,8 +4615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964F0BF7-6A25-43BB-879F-45C2A5A682DB}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4629,10 +4631,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5066,10 +5068,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49998F26-84EA-4C4D-9DE8-738C78602CF1}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5090,6 +5092,46 @@
         <v>99</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
